--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>635.1409433221691</v>
+        <v>475.6251530700926</v>
       </c>
       <c r="R2">
-        <v>5716.268489899521</v>
+        <v>4280.626377630833</v>
       </c>
       <c r="S2">
-        <v>0.001342643854372281</v>
+        <v>0.001120500119079388</v>
       </c>
       <c r="T2">
-        <v>0.001342643854372281</v>
+        <v>0.001120500119079388</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>1705.484612822576</v>
+        <v>2497.528577012537</v>
       </c>
       <c r="R3">
-        <v>15349.36151540318</v>
+        <v>22477.75719311283</v>
       </c>
       <c r="S3">
-        <v>0.003605276054406734</v>
+        <v>0.005883795358346645</v>
       </c>
       <c r="T3">
-        <v>0.003605276054406734</v>
+        <v>0.005883795358346645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>772.2014893027609</v>
+        <v>1245.313647320055</v>
       </c>
       <c r="R4">
-        <v>6949.813403724847</v>
+        <v>11207.82282588049</v>
       </c>
       <c r="S4">
-        <v>0.001632380332035329</v>
+        <v>0.002933768496275623</v>
       </c>
       <c r="T4">
-        <v>0.001632380332035329</v>
+        <v>0.002933768496275623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>2439.551140255469</v>
+        <v>2956.923885395312</v>
       </c>
       <c r="R5">
-        <v>21955.96026229922</v>
+        <v>26612.31496855781</v>
       </c>
       <c r="S5">
-        <v>0.005157041724878153</v>
+        <v>0.006966060445516146</v>
       </c>
       <c r="T5">
-        <v>0.005157041724878153</v>
+        <v>0.006966060445516146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>52112.40335685192</v>
+        <v>26648.52318584242</v>
       </c>
       <c r="R6">
-        <v>469011.6302116673</v>
+        <v>239836.7086725818</v>
       </c>
       <c r="S6">
-        <v>0.1101620023701666</v>
+        <v>0.06277984503192553</v>
       </c>
       <c r="T6">
-        <v>0.1101620023701667</v>
+        <v>0.06277984503192552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>139932.5661441929</v>
@@ -883,10 +883,10 @@
         <v>1259393.095297736</v>
       </c>
       <c r="S7">
-        <v>0.29580772887561</v>
+        <v>0.3296597247129734</v>
       </c>
       <c r="T7">
-        <v>0.29580772887561</v>
+        <v>0.3296597247129733</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>63358.02455565402</v>
+        <v>69772.94911769287</v>
       </c>
       <c r="R8">
-        <v>570222.2210008862</v>
+        <v>627956.542059236</v>
       </c>
       <c r="S8">
-        <v>0.1339344647659841</v>
+        <v>0.1643743971281804</v>
       </c>
       <c r="T8">
-        <v>0.1339344647659841</v>
+        <v>0.1643743971281804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>200161.6717790072</v>
+        <v>165671.756865886</v>
       </c>
       <c r="R9">
-        <v>1801455.046011065</v>
+        <v>1491045.811792974</v>
       </c>
       <c r="S9">
-        <v>0.4231278762935095</v>
+        <v>0.390297321531605</v>
       </c>
       <c r="T9">
-        <v>0.4231278762935095</v>
+        <v>0.390297321531605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>808.2929143943113</v>
+        <v>608.5742239108156</v>
       </c>
       <c r="R10">
-        <v>7274.636229548802</v>
+        <v>5477.16801519734</v>
       </c>
       <c r="S10">
-        <v>0.00170867509873899</v>
+        <v>0.001433707796904978</v>
       </c>
       <c r="T10">
-        <v>0.00170867509873899</v>
+        <v>0.001433707796904978</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>2170.433417411995</v>
+        <v>3195.649989575923</v>
       </c>
       <c r="R11">
-        <v>19533.90075670795</v>
+        <v>28760.84990618331</v>
       </c>
       <c r="S11">
-        <v>0.004588145544467418</v>
+        <v>0.007528462636474944</v>
       </c>
       <c r="T11">
-        <v>0.004588145544467418</v>
+        <v>0.007528462636474944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>982.7188734257911</v>
+        <v>1593.409813487435</v>
       </c>
       <c r="R12">
-        <v>8844.46986083212</v>
+        <v>14340.68832138692</v>
       </c>
       <c r="S12">
-        <v>0.002077399465194793</v>
+        <v>0.003753829826346089</v>
       </c>
       <c r="T12">
-        <v>0.002077399465194793</v>
+        <v>0.003753829826346089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>3104.620984843116</v>
+        <v>3783.457723171787</v>
       </c>
       <c r="R13">
-        <v>27941.58886358804</v>
+        <v>34051.11950854608</v>
       </c>
       <c r="S13">
-        <v>0.006562953198468969</v>
+        <v>0.008913247758200597</v>
       </c>
       <c r="T13">
-        <v>0.006562953198468971</v>
+        <v>0.008913247758200597</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N14">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O14">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P14">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q14">
-        <v>557.0058105939913</v>
+        <v>403.910916362877</v>
       </c>
       <c r="R14">
-        <v>5013.052295345921</v>
+        <v>3635.198247265893</v>
       </c>
       <c r="S14">
-        <v>0.001177471608950154</v>
+        <v>0.0009515523452885424</v>
       </c>
       <c r="T14">
-        <v>0.001177471608950154</v>
+        <v>0.0009515523452885423</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q15">
-        <v>1495.675643664115</v>
+        <v>2120.953969049116</v>
       </c>
       <c r="R15">
-        <v>13461.08079297703</v>
+        <v>19088.58572144204</v>
       </c>
       <c r="S15">
-        <v>0.003161754461294916</v>
+        <v>0.004996643174864235</v>
       </c>
       <c r="T15">
-        <v>0.003161754461294916</v>
+        <v>0.004996643174864234</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N16">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q16">
-        <v>677.2051479490232</v>
+        <v>1057.546627215726</v>
       </c>
       <c r="R16">
-        <v>6094.846331541208</v>
+        <v>9517.919644941534</v>
       </c>
       <c r="S16">
-        <v>0.001431564662304917</v>
+        <v>0.002491418113777924</v>
       </c>
       <c r="T16">
-        <v>0.001431564662304917</v>
+        <v>0.002491418113777924</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N17">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q17">
-        <v>2139.43719838926</v>
+        <v>2511.082158830424</v>
       </c>
       <c r="R17">
-        <v>19254.93478550334</v>
+        <v>22599.73942947382</v>
       </c>
       <c r="S17">
-        <v>0.004522621689617231</v>
+        <v>0.00591572552424066</v>
       </c>
       <c r="T17">
-        <v>0.004522621689617232</v>
+        <v>0.005915725524240659</v>
       </c>
     </row>
   </sheetData>
